--- a/Code/Results/Cases/Case_1_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.370396320390341</v>
+        <v>1.509722597846064</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04124829932923291</v>
+        <v>0.01342731672374953</v>
       </c>
       <c r="E2">
-        <v>1.069731758156877</v>
+        <v>0.6436769344872033</v>
       </c>
       <c r="F2">
-        <v>0.4151562596093683</v>
+        <v>0.3136141733259663</v>
       </c>
       <c r="G2">
-        <v>0.3251525100374693</v>
+        <v>0.1832981381767809</v>
       </c>
       <c r="H2">
-        <v>0.1896921672346537</v>
+        <v>0.3176921567105495</v>
       </c>
       <c r="I2">
-        <v>0.8762931925131809</v>
+        <v>0.8116579071855838</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.357793090387332</v>
+        <v>0.4928928701960729</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.039874187968593</v>
+        <v>0.9059872803690894</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.937434515970722</v>
+        <v>1.367318995150583</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03593930174773163</v>
+        <v>0.01172222869912076</v>
       </c>
       <c r="E3">
-        <v>0.9648197308190447</v>
+        <v>0.611446073590713</v>
       </c>
       <c r="F3">
-        <v>0.3648015126364896</v>
+        <v>0.304678709452638</v>
       </c>
       <c r="G3">
-        <v>0.2821075417516425</v>
+        <v>0.1751760899433208</v>
       </c>
       <c r="H3">
-        <v>0.1751478706710685</v>
+        <v>0.3178574265688781</v>
       </c>
       <c r="I3">
-        <v>0.8087080508391082</v>
+        <v>0.7992033266433225</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1820421506863</v>
+        <v>0.4354744488040296</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9178010441622177</v>
+        <v>0.8888264814999332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.671840602542034</v>
+        <v>1.279574098457772</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03267415825697384</v>
+        <v>0.01067205223134948</v>
       </c>
       <c r="E4">
-        <v>0.9006035070811578</v>
+        <v>0.5918752725521017</v>
       </c>
       <c r="F4">
-        <v>0.3347480159525702</v>
+        <v>0.2994982668508115</v>
       </c>
       <c r="G4">
-        <v>0.2564620384410148</v>
+        <v>0.1704113415099826</v>
       </c>
       <c r="H4">
-        <v>0.1667203422236696</v>
+        <v>0.3181992942576599</v>
       </c>
       <c r="I4">
-        <v>0.7689220236266792</v>
+        <v>0.7922808458555934</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.074154181053672</v>
+        <v>0.4000915507226068</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8455524896097586</v>
+        <v>0.8792536921792191</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.563633103147026</v>
+        <v>1.24374216191012</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03134206867780875</v>
+        <v>0.01024331856779526</v>
       </c>
       <c r="E5">
-        <v>0.8744860118276847</v>
+        <v>0.5839566661540232</v>
       </c>
       <c r="F5">
-        <v>0.3226998672878665</v>
+        <v>0.2974638381134582</v>
       </c>
       <c r="G5">
-        <v>0.2461901880460786</v>
+        <v>0.1685251413409148</v>
       </c>
       <c r="H5">
-        <v>0.1634041382196685</v>
+        <v>0.3183989519331334</v>
       </c>
       <c r="I5">
-        <v>0.7531143193920258</v>
+        <v>0.7896425648281138</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.03018193022757</v>
+        <v>0.3856416516871946</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8167344887214369</v>
+        <v>0.8755940245228118</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54566574054968</v>
+        <v>1.23778782697309</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03112078021521825</v>
+        <v>0.01017208178477347</v>
       </c>
       <c r="E6">
-        <v>0.8701523401985298</v>
+        <v>0.5826452556292026</v>
       </c>
       <c r="F6">
-        <v>0.3207107704771417</v>
+        <v>0.297130643200461</v>
       </c>
       <c r="G6">
-        <v>0.2444948419029771</v>
+        <v>0.1682152777668762</v>
       </c>
       <c r="H6">
-        <v>0.1628603811021989</v>
+        <v>0.3184357464839138</v>
       </c>
       <c r="I6">
-        <v>0.7505132484668806</v>
+        <v>0.7892155279701498</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.022879586226793</v>
+        <v>0.3832404107822924</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8119853688490224</v>
+        <v>0.8750008827939126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.670381228353676</v>
+        <v>1.279091157620428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03265619957384303</v>
+        <v>0.01066627327958258</v>
       </c>
       <c r="E7">
-        <v>0.9002510690513219</v>
+        <v>0.5917682479839783</v>
       </c>
       <c r="F7">
-        <v>0.3345847488770417</v>
+        <v>0.2994705198983283</v>
       </c>
       <c r="G7">
-        <v>0.2563228078625741</v>
+        <v>0.170385679484518</v>
       </c>
       <c r="H7">
-        <v>0.1666751513394615</v>
+        <v>0.3182017427209374</v>
       </c>
       <c r="I7">
-        <v>0.7687072257071037</v>
+        <v>0.7922445247642358</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.073561200817636</v>
+        <v>0.3998967987793662</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8451613863111334</v>
+        <v>0.8792033609650503</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.221036204129803</v>
+        <v>1.460687249273406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03941877465423715</v>
+        <v>0.01284009814737175</v>
       </c>
       <c r="E8">
-        <v>1.03351688398628</v>
+        <v>0.6325191865076647</v>
       </c>
       <c r="F8">
-        <v>0.3976030827930828</v>
+        <v>0.3104695415365342</v>
       </c>
       <c r="G8">
-        <v>0.3101365104849947</v>
+        <v>0.1804512874831516</v>
       </c>
       <c r="H8">
-        <v>0.184567803631424</v>
+        <v>0.3176991848945079</v>
       </c>
       <c r="I8">
-        <v>0.8526190897469519</v>
+        <v>0.8072134212547724</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.297181017314443</v>
+        <v>0.4731221187219603</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.997187196161633</v>
+        <v>0.8998694969822623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.304725498118557</v>
+        <v>1.814262127218115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05264599551632898</v>
+        <v>0.01707574886289365</v>
       </c>
       <c r="E9">
-        <v>1.296436062793319</v>
+        <v>0.7141061464823224</v>
       </c>
       <c r="F9">
-        <v>0.5289272686882995</v>
+        <v>0.3344810799574987</v>
       </c>
       <c r="G9">
-        <v>0.4227646846300814</v>
+        <v>0.2019725385915621</v>
       </c>
       <c r="H9">
-        <v>0.2240428839290729</v>
+        <v>0.3186262248095915</v>
       </c>
       <c r="I9">
-        <v>1.031963567467088</v>
+        <v>0.842301567055415</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.736549036560461</v>
+        <v>0.6156645770115574</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.319465262784348</v>
+        <v>0.9480969420248186</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.106206668477455</v>
+        <v>2.072399617091833</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06235742307328707</v>
+        <v>0.02016942592716475</v>
       </c>
       <c r="E10">
-        <v>1.49061388798377</v>
+        <v>0.7749904287297511</v>
       </c>
       <c r="F10">
-        <v>0.631446474549918</v>
+        <v>0.3536339400702531</v>
       </c>
       <c r="G10">
-        <v>0.5111406565440575</v>
+        <v>0.218899324773318</v>
       </c>
       <c r="H10">
-        <v>0.2563109632593097</v>
+        <v>0.3204810404215124</v>
       </c>
       <c r="I10">
-        <v>1.174569696415844</v>
+        <v>0.8715616011315319</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.060903192666814</v>
+        <v>0.7197082195258702</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.574963004148543</v>
+        <v>0.9883014117132234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.472692854053776</v>
+        <v>2.189461777525821</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06677753589394086</v>
+        <v>0.02157252266362519</v>
       </c>
       <c r="E11">
-        <v>1.579189303599563</v>
+        <v>0.8028769334174797</v>
       </c>
       <c r="F11">
-        <v>0.6797090695771857</v>
+        <v>0.362680228357064</v>
       </c>
       <c r="G11">
-        <v>0.5528778668503662</v>
+        <v>0.2268480350558235</v>
       </c>
       <c r="H11">
-        <v>0.2718409138331594</v>
+        <v>0.3215814053081374</v>
       </c>
       <c r="I11">
-        <v>1.24223969748239</v>
+        <v>0.8856261515798849</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.209051521548929</v>
+        <v>0.7668844441146518</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.696214864754324</v>
+        <v>1.007644274317755</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.611807417007242</v>
+        <v>2.233735674880677</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06845196074587534</v>
+        <v>0.02210319599090838</v>
       </c>
       <c r="E12">
-        <v>1.612767177056654</v>
+        <v>0.8134626968632688</v>
       </c>
       <c r="F12">
-        <v>0.6982467507487797</v>
+        <v>0.3661541304324203</v>
       </c>
       <c r="G12">
-        <v>0.5689312119992707</v>
+        <v>0.2298942092632501</v>
       </c>
       <c r="H12">
-        <v>0.2778567768585134</v>
+        <v>0.3220351068897571</v>
       </c>
       <c r="I12">
-        <v>1.268306579241781</v>
+        <v>0.8910601847422157</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.265260065666894</v>
+        <v>0.784725888102713</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.7429380461802</v>
+        <v>1.015121649130037</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.581830688567436</v>
+        <v>2.224202982723341</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06809131074234642</v>
+        <v>0.02198893549758907</v>
       </c>
       <c r="E13">
-        <v>1.605533940922456</v>
+        <v>0.8111817428019492</v>
       </c>
       <c r="F13">
-        <v>0.6942422251913314</v>
+        <v>0.3654038118802134</v>
       </c>
       <c r="G13">
-        <v>0.5654623269774106</v>
+        <v>0.2292365458584982</v>
       </c>
       <c r="H13">
-        <v>0.2765549372499123</v>
+        <v>0.3219357459063161</v>
       </c>
       <c r="I13">
-        <v>1.262672303649197</v>
+        <v>0.8898850660899171</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.253149376078795</v>
+        <v>0.7808844610343613</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.732838023235871</v>
+        <v>1.013504455373862</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.484130817208211</v>
+        <v>2.19310533355906</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06691527757377003</v>
+        <v>0.02161619471387866</v>
       </c>
       <c r="E14">
-        <v>1.581951038843499</v>
+        <v>0.803747323385906</v>
       </c>
       <c r="F14">
-        <v>0.6812287642920012</v>
+        <v>0.3629650592586131</v>
       </c>
       <c r="G14">
-        <v>0.5541934413695913</v>
+        <v>0.2270979183590924</v>
       </c>
       <c r="H14">
-        <v>0.2723330609987329</v>
+        <v>0.3216179890539479</v>
       </c>
       <c r="I14">
-        <v>1.244375146072628</v>
+        <v>0.8860710482469898</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.213673535137275</v>
+        <v>0.7683527407895099</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.700042109883697</v>
+        <v>1.008256376567687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.424332297497415</v>
+        <v>2.174049892465121</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0661950136141769</v>
+        <v>0.02138779451530581</v>
       </c>
       <c r="E15">
-        <v>1.567510603876585</v>
+        <v>0.7991968340471232</v>
       </c>
       <c r="F15">
-        <v>0.6732925846534812</v>
+        <v>0.3614775478797014</v>
       </c>
       <c r="G15">
-        <v>0.5473241264483732</v>
+        <v>0.2257926700122397</v>
       </c>
       <c r="H15">
-        <v>0.2697650129874631</v>
+        <v>0.3214281780484072</v>
       </c>
       <c r="I15">
-        <v>1.233226355916713</v>
+        <v>0.8837489195686743</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.189508191836296</v>
+        <v>0.7606736519171307</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.680061494769404</v>
+        <v>1.005061690280058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.082299169373073</v>
+        <v>2.064741761908806</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06206862929426649</v>
+        <v>0.02007764163531078</v>
       </c>
       <c r="E16">
-        <v>1.484830269902588</v>
+        <v>0.773171668052413</v>
       </c>
       <c r="F16">
-        <v>0.6283274562112808</v>
+        <v>0.3530494819275418</v>
       </c>
       <c r="G16">
-        <v>0.5084462319558725</v>
+        <v>0.2183848966997886</v>
       </c>
       <c r="H16">
-        <v>0.2553142277551643</v>
+        <v>0.3204143025908905</v>
       </c>
       <c r="I16">
-        <v>1.170206900122579</v>
+        <v>0.8706575934293284</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.051235220658782</v>
+        <v>0.7166219575352386</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.567147157332812</v>
+        <v>0.9870586098447802</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.872999516669324</v>
+        <v>1.997589339579974</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05953802057007351</v>
+        <v>0.01927279248182856</v>
       </c>
       <c r="E17">
-        <v>1.434171603391363</v>
+        <v>0.7572536014188813</v>
       </c>
       <c r="F17">
-        <v>0.6011784702690051</v>
+        <v>0.3479647856020023</v>
       </c>
       <c r="G17">
-        <v>0.4850080055461348</v>
+        <v>0.2139044459822657</v>
       </c>
       <c r="H17">
-        <v>0.2466758036204055</v>
+        <v>0.3198581289088338</v>
       </c>
       <c r="I17">
-        <v>1.132290166332254</v>
+        <v>0.8628193664483632</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.966577441539698</v>
+        <v>0.6895575319411194</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.499223446276403</v>
+        <v>0.9762849812286163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.752789577402268</v>
+        <v>1.958930744067743</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05808268229902325</v>
+        <v>0.0188094685535134</v>
       </c>
       <c r="E18">
-        <v>1.405056836848146</v>
+        <v>0.7481159208264927</v>
       </c>
       <c r="F18">
-        <v>0.5857143628577646</v>
+        <v>0.3450715806814415</v>
       </c>
       <c r="G18">
-        <v>0.4716696190461676</v>
+        <v>0.2113507867658768</v>
       </c>
       <c r="H18">
-        <v>0.2417865044720884</v>
+        <v>0.3195623778985919</v>
       </c>
       <c r="I18">
-        <v>1.110742266429327</v>
+        <v>0.8583820155910047</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.917939383108205</v>
+        <v>0.6739763807733539</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.460623005598507</v>
+        <v>0.9701873818043225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.712116564269195</v>
+        <v>1.945835790659714</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05758995595667216</v>
+        <v>0.01865252825518837</v>
       </c>
       <c r="E19">
-        <v>1.395202952343837</v>
+        <v>0.7450251935464109</v>
       </c>
       <c r="F19">
-        <v>0.5805036470679568</v>
+        <v>0.344097371076181</v>
       </c>
       <c r="G19">
-        <v>0.4671771619126304</v>
+        <v>0.2104901639726791</v>
       </c>
       <c r="H19">
-        <v>0.2401443209840011</v>
+        <v>0.3194663850537154</v>
       </c>
       <c r="I19">
-        <v>1.103490159374147</v>
+        <v>0.8568918079231196</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.90148015494492</v>
+        <v>0.668698428419475</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.447631356554126</v>
+        <v>0.968139826231436</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.895261409123464</v>
+        <v>2.004741396769361</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05980738539553698</v>
+        <v>0.01935851132381572</v>
       </c>
       <c r="E20">
-        <v>1.439561941184891</v>
+        <v>0.7589462583068212</v>
       </c>
       <c r="F20">
-        <v>0.6040526748992505</v>
+        <v>0.348502810495873</v>
       </c>
       <c r="G20">
-        <v>0.4874880857099271</v>
+        <v>0.2143789750890335</v>
       </c>
       <c r="H20">
-        <v>0.2475870835041292</v>
+        <v>0.319914834727669</v>
       </c>
       <c r="I20">
-        <v>1.136299199527983</v>
+        <v>0.863646414370848</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.975583575941386</v>
+        <v>0.6924400852925601</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.50640506175813</v>
+        <v>0.9774215869209684</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.512818041897731</v>
+        <v>2.202240978498821</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06726068764643145</v>
+        <v>0.02172569565068727</v>
       </c>
       <c r="E21">
-        <v>1.588876910981753</v>
+        <v>0.8059303061254894</v>
       </c>
       <c r="F21">
-        <v>0.6850437988919538</v>
+        <v>0.363680067605614</v>
       </c>
       <c r="G21">
-        <v>0.5574964143565921</v>
+        <v>0.2277251001405176</v>
       </c>
       <c r="H21">
-        <v>0.273569358916717</v>
+        <v>0.3217103163663779</v>
       </c>
       <c r="I21">
-        <v>1.249737147215441</v>
+        <v>0.88718838667792</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.225265430797918</v>
+        <v>0.7720342479461522</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.709652431989326</v>
+        <v>1.00979371254985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.918407927262649</v>
+        <v>2.330996700224091</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0721356437938212</v>
+        <v>0.02326898626181162</v>
       </c>
       <c r="E22">
-        <v>1.686675339522438</v>
+        <v>0.8367864711651123</v>
       </c>
       <c r="F22">
-        <v>0.7395159274416869</v>
+        <v>0.373880770071608</v>
       </c>
       <c r="G22">
-        <v>0.6047129904089132</v>
+        <v>0.2366585828590502</v>
       </c>
       <c r="H22">
-        <v>0.2913437719387559</v>
+        <v>0.3230995867041599</v>
       </c>
       <c r="I22">
-        <v>1.326470638087372</v>
+        <v>0.9032043358073878</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.389088021971759</v>
+        <v>0.8239181108587275</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.847238706738068</v>
+        <v>1.031841065799711</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.701733610535825</v>
+        <v>2.262307559162707</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06953333813097373</v>
+        <v>0.02244566410227122</v>
       </c>
       <c r="E23">
-        <v>1.634458469125903</v>
+        <v>0.820304799532849</v>
       </c>
       <c r="F23">
-        <v>0.7102924864970532</v>
+        <v>0.3684106074625788</v>
       </c>
       <c r="G23">
-        <v>0.5793691241899381</v>
+        <v>0.2318711697769089</v>
       </c>
       <c r="H23">
-        <v>0.2817802015913742</v>
+        <v>0.3223383206137953</v>
       </c>
       <c r="I23">
-        <v>1.285265229172154</v>
+        <v>0.8945987904238706</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.301586381288558</v>
+        <v>0.7962394630709184</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.773341620754621</v>
+        <v>1.019992142171304</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.885196440876427</v>
+        <v>2.001508112795705</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05968560700474512</v>
+        <v>0.01931975971778854</v>
       </c>
       <c r="E24">
-        <v>1.437124939738155</v>
+        <v>0.7581809649315261</v>
       </c>
       <c r="F24">
-        <v>0.6027527998969759</v>
+        <v>0.3482594758467243</v>
       </c>
       <c r="G24">
-        <v>0.4863664181772975</v>
+        <v>0.2141643713251966</v>
       </c>
       <c r="H24">
-        <v>0.2471748548313855</v>
+        <v>0.319889123274109</v>
       </c>
       <c r="I24">
-        <v>1.134485936955386</v>
+        <v>0.8632722912030744</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.971511801970252</v>
+        <v>0.6911369496687882</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.50315685871962</v>
+        <v>0.9769074275967569</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.01085671062441</v>
+        <v>1.718891457340476</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04906995044292728</v>
+        <v>0.01593297942372374</v>
       </c>
       <c r="E25">
-        <v>1.225136619576915</v>
+        <v>0.6918636263625899</v>
       </c>
       <c r="F25">
-        <v>0.4924409731614503</v>
+        <v>0.3277214917820217</v>
       </c>
       <c r="G25">
-        <v>0.3914067186502024</v>
+        <v>0.1959566812079885</v>
       </c>
       <c r="H25">
-        <v>0.2128354732348896</v>
+        <v>0.3181698765240952</v>
       </c>
       <c r="I25">
-        <v>0.9816823670997792</v>
+        <v>0.8321970357804958</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.617496083406053</v>
+        <v>0.5772199952485551</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.22929813945936</v>
+        <v>0.9342176897655747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.509722597846064</v>
+        <v>3.370396320390114</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01342731672374953</v>
+        <v>0.04124829932911211</v>
       </c>
       <c r="E2">
-        <v>0.6436769344872033</v>
+        <v>1.069731758156877</v>
       </c>
       <c r="F2">
-        <v>0.3136141733259663</v>
+        <v>0.4151562596093612</v>
       </c>
       <c r="G2">
-        <v>0.1832981381767809</v>
+        <v>0.3251525100375261</v>
       </c>
       <c r="H2">
-        <v>0.3176921567105495</v>
+        <v>0.18969216723454</v>
       </c>
       <c r="I2">
-        <v>0.8116579071855838</v>
+        <v>0.8762931925131809</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4928928701960729</v>
+        <v>1.357793090387077</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9059872803690894</v>
+        <v>1.039874187968451</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.367318995150583</v>
+        <v>2.937434515970494</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01172222869912076</v>
+        <v>0.03593930174788085</v>
       </c>
       <c r="E3">
-        <v>0.611446073590713</v>
+        <v>0.9648197308190305</v>
       </c>
       <c r="F3">
-        <v>0.304678709452638</v>
+        <v>0.3648015126364896</v>
       </c>
       <c r="G3">
-        <v>0.1751760899433208</v>
+        <v>0.2821075417516568</v>
       </c>
       <c r="H3">
-        <v>0.3178574265688781</v>
+        <v>0.1751478706711822</v>
       </c>
       <c r="I3">
-        <v>0.7992033266433225</v>
+        <v>0.8087080508391367</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4354744488040296</v>
+        <v>1.182042150686385</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8888264814999332</v>
+        <v>0.9178010441621609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.279574098457772</v>
+        <v>2.67184060254209</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01067205223134948</v>
+        <v>0.03267415825663278</v>
       </c>
       <c r="E4">
-        <v>0.5918752725521017</v>
+        <v>0.9006035070811578</v>
       </c>
       <c r="F4">
-        <v>0.2994982668508115</v>
+        <v>0.3347480159525702</v>
       </c>
       <c r="G4">
-        <v>0.1704113415099826</v>
+        <v>0.2564620384410716</v>
       </c>
       <c r="H4">
-        <v>0.3181992942576599</v>
+        <v>0.1667203422236696</v>
       </c>
       <c r="I4">
-        <v>0.7922808458555934</v>
+        <v>0.7689220236266507</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4000915507226068</v>
+        <v>1.074154181053643</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8792536921792191</v>
+        <v>0.8455524896097018</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.24374216191012</v>
+        <v>2.563633103147367</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01024331856779526</v>
+        <v>0.03134206867770217</v>
       </c>
       <c r="E5">
-        <v>0.5839566661540232</v>
+        <v>0.8744860118276989</v>
       </c>
       <c r="F5">
-        <v>0.2974638381134582</v>
+        <v>0.3226998672878807</v>
       </c>
       <c r="G5">
-        <v>0.1685251413409148</v>
+        <v>0.2461901880460218</v>
       </c>
       <c r="H5">
-        <v>0.3183989519331334</v>
+        <v>0.1634041382197822</v>
       </c>
       <c r="I5">
-        <v>0.7896425648281138</v>
+        <v>0.7531143193920542</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3856416516871946</v>
+        <v>1.030181930227457</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8755940245228118</v>
+        <v>0.8167344887214369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23778782697309</v>
+        <v>2.54566574054968</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01017208178477347</v>
+        <v>0.03112078021521825</v>
       </c>
       <c r="E6">
-        <v>0.5826452556292026</v>
+        <v>0.8701523401985298</v>
       </c>
       <c r="F6">
-        <v>0.297130643200461</v>
+        <v>0.3207107704771488</v>
       </c>
       <c r="G6">
-        <v>0.1682152777668762</v>
+        <v>0.2444948419029771</v>
       </c>
       <c r="H6">
-        <v>0.3184357464839138</v>
+        <v>0.1628603811021989</v>
       </c>
       <c r="I6">
-        <v>0.7892155279701498</v>
+        <v>0.7505132484668451</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3832404107822924</v>
+        <v>1.022879586226964</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8750008827939126</v>
+        <v>0.8119853688490934</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.279091157620428</v>
+        <v>2.670381228353619</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01066627327958258</v>
+        <v>0.03265619957387145</v>
       </c>
       <c r="E7">
-        <v>0.5917682479839783</v>
+        <v>0.9002510690512651</v>
       </c>
       <c r="F7">
-        <v>0.2994705198983283</v>
+        <v>0.3345847488770559</v>
       </c>
       <c r="G7">
-        <v>0.170385679484518</v>
+        <v>0.2563228078625812</v>
       </c>
       <c r="H7">
-        <v>0.3182017427209374</v>
+        <v>0.1666751513393621</v>
       </c>
       <c r="I7">
-        <v>0.7922445247642358</v>
+        <v>0.7687072257070966</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3998967987793662</v>
+        <v>1.073561200817579</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8792033609650503</v>
+        <v>0.8451613863111049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.460687249273406</v>
+        <v>3.221036204129859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01284009814737175</v>
+        <v>0.03941877465420873</v>
       </c>
       <c r="E8">
-        <v>0.6325191865076647</v>
+        <v>1.033516883986252</v>
       </c>
       <c r="F8">
-        <v>0.3104695415365342</v>
+        <v>0.3976030827930828</v>
       </c>
       <c r="G8">
-        <v>0.1804512874831516</v>
+        <v>0.3101365104849521</v>
       </c>
       <c r="H8">
-        <v>0.3176991848945079</v>
+        <v>0.184567803631424</v>
       </c>
       <c r="I8">
-        <v>0.8072134212547724</v>
+        <v>0.8526190897469519</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4731221187219603</v>
+        <v>1.297181017314557</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8998694969822623</v>
+        <v>0.9971871961615761</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.814262127218115</v>
+        <v>4.304725498118728</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01707574886289365</v>
+        <v>0.05264599551650662</v>
       </c>
       <c r="E9">
-        <v>0.7141061464823224</v>
+        <v>1.296436062793333</v>
       </c>
       <c r="F9">
-        <v>0.3344810799574987</v>
+        <v>0.5289272686882995</v>
       </c>
       <c r="G9">
-        <v>0.2019725385915621</v>
+        <v>0.422764684630053</v>
       </c>
       <c r="H9">
-        <v>0.3186262248095915</v>
+        <v>0.2240428839290729</v>
       </c>
       <c r="I9">
-        <v>0.842301567055415</v>
+        <v>1.031963567467088</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6156645770115574</v>
+        <v>1.736549036560575</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9480969420248186</v>
+        <v>1.319465262784291</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.072399617091833</v>
+        <v>5.106206668477967</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02016942592716475</v>
+        <v>0.06235742307329417</v>
       </c>
       <c r="E10">
-        <v>0.7749904287297511</v>
+        <v>1.490613887983741</v>
       </c>
       <c r="F10">
-        <v>0.3536339400702531</v>
+        <v>0.6314464745499322</v>
       </c>
       <c r="G10">
-        <v>0.218899324773318</v>
+        <v>0.5111406565440291</v>
       </c>
       <c r="H10">
-        <v>0.3204810404215124</v>
+        <v>0.2563109632594376</v>
       </c>
       <c r="I10">
-        <v>0.8715616011315319</v>
+        <v>1.174569696415872</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7197082195258702</v>
+        <v>2.060903192666558</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9883014117132234</v>
+        <v>1.5749630041486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.189461777525821</v>
+        <v>5.47269285405406</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02157252266362519</v>
+        <v>0.0667775358937206</v>
       </c>
       <c r="E11">
-        <v>0.8028769334174797</v>
+        <v>1.579189303599577</v>
       </c>
       <c r="F11">
-        <v>0.362680228357064</v>
+        <v>0.6797090695771999</v>
       </c>
       <c r="G11">
-        <v>0.2268480350558235</v>
+        <v>0.5528778668503378</v>
       </c>
       <c r="H11">
-        <v>0.3215814053081374</v>
+        <v>0.2718409138331737</v>
       </c>
       <c r="I11">
-        <v>0.8856261515798849</v>
+        <v>1.242239697482376</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7668844441146518</v>
+        <v>2.209051521548986</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.007644274317755</v>
+        <v>1.696214864754353</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.233735674880677</v>
+        <v>5.611807417007242</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02210319599090838</v>
+        <v>0.06845196074587534</v>
       </c>
       <c r="E12">
-        <v>0.8134626968632688</v>
+        <v>1.612767177056696</v>
       </c>
       <c r="F12">
-        <v>0.3661541304324203</v>
+        <v>0.6982467507487797</v>
       </c>
       <c r="G12">
-        <v>0.2298942092632501</v>
+        <v>0.5689312119993133</v>
       </c>
       <c r="H12">
-        <v>0.3220351068897571</v>
+        <v>0.2778567768584992</v>
       </c>
       <c r="I12">
-        <v>0.8910601847422157</v>
+        <v>1.268306579241781</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.784725888102713</v>
+        <v>2.265260065667007</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.015121649130037</v>
+        <v>1.742938046180171</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.224202982723341</v>
+        <v>5.581830688567209</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02198893549758907</v>
+        <v>0.06809131074222563</v>
       </c>
       <c r="E13">
-        <v>0.8111817428019492</v>
+        <v>1.605533940922456</v>
       </c>
       <c r="F13">
-        <v>0.3654038118802134</v>
+        <v>0.6942422251913456</v>
       </c>
       <c r="G13">
-        <v>0.2292365458584982</v>
+        <v>0.5654623269774248</v>
       </c>
       <c r="H13">
-        <v>0.3219357459063161</v>
+        <v>0.2765549372498981</v>
       </c>
       <c r="I13">
-        <v>0.8898850660899171</v>
+        <v>1.262672303649182</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7808844610343613</v>
+        <v>2.253149376078881</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.013504455373862</v>
+        <v>1.732838023235871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.19310533355906</v>
+        <v>5.484130817208381</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02161619471387866</v>
+        <v>0.06691527757399029</v>
       </c>
       <c r="E14">
-        <v>0.803747323385906</v>
+        <v>1.581951038843457</v>
       </c>
       <c r="F14">
-        <v>0.3629650592586131</v>
+        <v>0.6812287642920012</v>
       </c>
       <c r="G14">
-        <v>0.2270979183590924</v>
+        <v>0.5541934413695913</v>
       </c>
       <c r="H14">
-        <v>0.3216179890539479</v>
+        <v>0.272333060998605</v>
       </c>
       <c r="I14">
-        <v>0.8860710482469898</v>
+        <v>1.244375146072642</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7683527407895099</v>
+        <v>2.213673535137133</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.008256376567687</v>
+        <v>1.700042109883697</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.174049892465121</v>
+        <v>5.424332297497585</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02138779451530581</v>
+        <v>0.06619501361412006</v>
       </c>
       <c r="E15">
-        <v>0.7991968340471232</v>
+        <v>1.567510603876599</v>
       </c>
       <c r="F15">
-        <v>0.3614775478797014</v>
+        <v>0.6732925846535096</v>
       </c>
       <c r="G15">
-        <v>0.2257926700122397</v>
+        <v>0.5473241264484017</v>
       </c>
       <c r="H15">
-        <v>0.3214281780484072</v>
+        <v>0.2697650129874631</v>
       </c>
       <c r="I15">
-        <v>0.8837489195686743</v>
+        <v>1.233226355916713</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7606736519171307</v>
+        <v>2.189508191836296</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.005061690280058</v>
+        <v>1.680061494769404</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.064741761908806</v>
+        <v>5.082299169373243</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02007764163531078</v>
+        <v>0.0620686292941599</v>
       </c>
       <c r="E16">
-        <v>0.773171668052413</v>
+        <v>1.484830269902588</v>
       </c>
       <c r="F16">
-        <v>0.3530494819275418</v>
+        <v>0.6283274562112808</v>
       </c>
       <c r="G16">
-        <v>0.2183848966997886</v>
+        <v>0.5084462319558725</v>
       </c>
       <c r="H16">
-        <v>0.3204143025908905</v>
+        <v>0.2553142277551643</v>
       </c>
       <c r="I16">
-        <v>0.8706575934293284</v>
+        <v>1.170206900122565</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7166219575352386</v>
+        <v>2.051235220658668</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9870586098447802</v>
+        <v>1.56714715733284</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.997589339579974</v>
+        <v>4.872999516669267</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01927279248182856</v>
+        <v>0.05953802056989588</v>
       </c>
       <c r="E17">
-        <v>0.7572536014188813</v>
+        <v>1.434171603391377</v>
       </c>
       <c r="F17">
-        <v>0.3479647856020023</v>
+        <v>0.6011784702689908</v>
       </c>
       <c r="G17">
-        <v>0.2139044459822657</v>
+        <v>0.4850080055461774</v>
       </c>
       <c r="H17">
-        <v>0.3198581289088338</v>
+        <v>0.2466758036205192</v>
       </c>
       <c r="I17">
-        <v>0.8628193664483632</v>
+        <v>1.13229016633224</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6895575319411194</v>
+        <v>1.966577441539641</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9762849812286163</v>
+        <v>1.499223446276375</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.958930744067743</v>
+        <v>4.752789577402325</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0188094685535134</v>
+        <v>0.05808268229885272</v>
       </c>
       <c r="E18">
-        <v>0.7481159208264927</v>
+        <v>1.405056836848146</v>
       </c>
       <c r="F18">
-        <v>0.3450715806814415</v>
+        <v>0.5857143628577646</v>
       </c>
       <c r="G18">
-        <v>0.2113507867658768</v>
+        <v>0.4716696190461391</v>
       </c>
       <c r="H18">
-        <v>0.3195623778985919</v>
+        <v>0.2417865044721026</v>
       </c>
       <c r="I18">
-        <v>0.8583820155910047</v>
+        <v>1.110742266429298</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6739763807733539</v>
+        <v>1.91793938310812</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9701873818043225</v>
+        <v>1.460623005598507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.945835790659714</v>
+        <v>4.712116564269536</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01865252825518837</v>
+        <v>0.05758995595677874</v>
       </c>
       <c r="E19">
-        <v>0.7450251935464109</v>
+        <v>1.395202952343794</v>
       </c>
       <c r="F19">
-        <v>0.344097371076181</v>
+        <v>0.5805036470679497</v>
       </c>
       <c r="G19">
-        <v>0.2104901639726791</v>
+        <v>0.4671771619126446</v>
       </c>
       <c r="H19">
-        <v>0.3194663850537154</v>
+        <v>0.2401443209839016</v>
       </c>
       <c r="I19">
-        <v>0.8568918079231196</v>
+        <v>1.103490159374147</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.668698428419475</v>
+        <v>1.901480154944892</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.968139826231436</v>
+        <v>1.447631356554155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.004741396769361</v>
+        <v>4.895261409123748</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01935851132381572</v>
+        <v>0.05980738539548014</v>
       </c>
       <c r="E20">
-        <v>0.7589462583068212</v>
+        <v>1.43956194118492</v>
       </c>
       <c r="F20">
-        <v>0.348502810495873</v>
+        <v>0.6040526748992647</v>
       </c>
       <c r="G20">
-        <v>0.2143789750890335</v>
+        <v>0.4874880857098844</v>
       </c>
       <c r="H20">
-        <v>0.319914834727669</v>
+        <v>0.2475870835042286</v>
       </c>
       <c r="I20">
-        <v>0.863646414370848</v>
+        <v>1.136299199527983</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6924400852925601</v>
+        <v>1.975583575941272</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9774215869209684</v>
+        <v>1.506405061758102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.202240978498821</v>
+        <v>5.512818041898072</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02172569565068727</v>
+        <v>0.06726068764653803</v>
       </c>
       <c r="E21">
-        <v>0.8059303061254894</v>
+        <v>1.588876910981696</v>
       </c>
       <c r="F21">
-        <v>0.363680067605614</v>
+        <v>0.6850437988919538</v>
       </c>
       <c r="G21">
-        <v>0.2277251001405176</v>
+        <v>0.5574964143565779</v>
       </c>
       <c r="H21">
-        <v>0.3217103163663779</v>
+        <v>0.273569358916717</v>
       </c>
       <c r="I21">
-        <v>0.88718838667792</v>
+        <v>1.249737147215484</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7720342479461522</v>
+        <v>2.22526543079789</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.00979371254985</v>
+        <v>1.709652431989355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.330996700224091</v>
+        <v>5.918407927262706</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02326898626181162</v>
+        <v>0.07213564379399884</v>
       </c>
       <c r="E22">
-        <v>0.8367864711651123</v>
+        <v>1.686675339522424</v>
       </c>
       <c r="F22">
-        <v>0.373880770071608</v>
+        <v>0.7395159274416727</v>
       </c>
       <c r="G22">
-        <v>0.2366585828590502</v>
+        <v>0.6047129904089275</v>
       </c>
       <c r="H22">
-        <v>0.3230995867041599</v>
+        <v>0.2913437719387701</v>
       </c>
       <c r="I22">
-        <v>0.9032043358073878</v>
+        <v>1.326470638087372</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8239181108587275</v>
+        <v>2.389088021971929</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.031841065799711</v>
+        <v>1.847238706738068</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.262307559162707</v>
+        <v>5.701733610535314</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02244566410227122</v>
+        <v>0.06953333813076057</v>
       </c>
       <c r="E23">
-        <v>0.820304799532849</v>
+        <v>1.634458469125889</v>
       </c>
       <c r="F23">
-        <v>0.3684106074625788</v>
+        <v>0.7102924864970532</v>
       </c>
       <c r="G23">
-        <v>0.2318711697769089</v>
+        <v>0.5793691241899666</v>
       </c>
       <c r="H23">
-        <v>0.3223383206137953</v>
+        <v>0.2817802015914879</v>
       </c>
       <c r="I23">
-        <v>0.8945987904238706</v>
+        <v>1.285265229172182</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7962394630709184</v>
+        <v>2.301586381288359</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.019992142171304</v>
+        <v>1.77334162075465</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.001508112795705</v>
+        <v>4.885196440876541</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01931975971778854</v>
+        <v>0.05968560700464565</v>
       </c>
       <c r="E24">
-        <v>0.7581809649315261</v>
+        <v>1.437124939738169</v>
       </c>
       <c r="F24">
-        <v>0.3482594758467243</v>
+        <v>0.6027527998969617</v>
       </c>
       <c r="G24">
-        <v>0.2141643713251966</v>
+        <v>0.4863664181772975</v>
       </c>
       <c r="H24">
-        <v>0.319889123274109</v>
+        <v>0.2471748548313855</v>
       </c>
       <c r="I24">
-        <v>0.8632722912030744</v>
+        <v>1.1344859369554</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6911369496687882</v>
+        <v>1.971511801970166</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9769074275967569</v>
+        <v>1.50315685871962</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.718891457340476</v>
+        <v>4.010856710624239</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01593297942372374</v>
+        <v>0.04906995044265017</v>
       </c>
       <c r="E25">
-        <v>0.6918636263625899</v>
+        <v>1.225136619576915</v>
       </c>
       <c r="F25">
-        <v>0.3277214917820217</v>
+        <v>0.4924409731614574</v>
       </c>
       <c r="G25">
-        <v>0.1959566812079885</v>
+        <v>0.3914067186502024</v>
       </c>
       <c r="H25">
-        <v>0.3181698765240952</v>
+        <v>0.2128354732348896</v>
       </c>
       <c r="I25">
-        <v>0.8321970357804958</v>
+        <v>0.9816823670997934</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5772199952485551</v>
+        <v>1.617496083406081</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9342176897655747</v>
+        <v>1.229298139459445</v>
       </c>
     </row>
   </sheetData>
